--- a/databases/Brands.xlsx
+++ b/databases/Brands.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">include</t>
   </si>
   <si>
-    <t xml:space="preserve">Picture</t>
+    <t xml:space="preserve">Image</t>
   </si>
   <si>
     <t xml:space="preserve">1 A Pharma</t>
@@ -513,7 +513,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -541,6 +541,13 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -644,19 +651,23 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -668,7 +679,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -762,7 +773,7 @@
     <tableColumn id="2" name="ID"/>
     <tableColumn id="3" name="Anzahl"/>
     <tableColumn id="4" name="include"/>
-    <tableColumn id="5" name="Picture"/>
+    <tableColumn id="5" name="Image"/>
   </tableColumns>
 </table>
 </file>
@@ -774,11 +785,11 @@
   </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.38671875" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -786,7 +797,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="91"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,10 +815,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -816,15 +827,15 @@
       <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -833,15 +844,15 @@
       <c r="D3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -850,15 +861,15 @@
       <c r="D4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -866,10 +877,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -877,10 +888,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -888,10 +899,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -899,10 +910,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -910,10 +921,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -921,10 +932,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -932,10 +943,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -943,10 +954,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -955,15 +966,15 @@
       <c r="D13" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -971,10 +982,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -982,10 +993,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -993,10 +1004,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -1004,10 +1015,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -1015,10 +1026,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -1026,10 +1037,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -1037,10 +1048,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -1049,15 +1060,15 @@
       <c r="D21" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -1066,15 +1077,15 @@
       <c r="D22" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -1082,10 +1093,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -1093,10 +1104,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1104,10 +1115,10 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1115,10 +1126,10 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1126,10 +1137,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -1137,10 +1148,10 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -1148,10 +1159,10 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -1159,18 +1170,18 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -1178,10 +1189,10 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -1189,10 +1200,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -1201,15 +1212,15 @@
       <c r="D34" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -1217,10 +1228,10 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -1228,10 +1239,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -1240,15 +1251,15 @@
       <c r="D37" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="0" t="n">
@@ -1256,10 +1267,10 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="0" t="n">
@@ -1267,10 +1278,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="0" t="n">
@@ -1278,10 +1289,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="0" t="n">
@@ -1289,10 +1300,10 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="0" t="n">
@@ -1300,10 +1311,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="0" t="n">
@@ -1312,15 +1323,15 @@
       <c r="D43" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="0" t="n">
@@ -1328,10 +1339,10 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C45" s="0" t="n">
@@ -1339,10 +1350,10 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="0" t="n">
@@ -1350,10 +1361,10 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="0" t="n">
@@ -1362,15 +1373,15 @@
       <c r="D47" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="0" t="n">
@@ -1378,10 +1389,10 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="0" t="n">
@@ -1389,10 +1400,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C50" s="0" t="n">
@@ -1401,15 +1412,15 @@
       <c r="D50" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C51" s="0" t="n">
@@ -1417,10 +1428,10 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C52" s="0" t="n">
@@ -1429,15 +1440,15 @@
       <c r="D52" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C53" s="0" t="n">
@@ -1445,10 +1456,10 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C54" s="0" t="n">
@@ -1456,10 +1467,10 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C55" s="0" t="n">
@@ -1468,15 +1479,15 @@
       <c r="D55" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C56" s="0" t="n">
@@ -1484,10 +1495,10 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C57" s="0" t="n">
@@ -1495,10 +1506,10 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C58" s="0" t="n">
@@ -1506,10 +1517,10 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C59" s="0" t="n">
@@ -1518,15 +1529,15 @@
       <c r="D59" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C60" s="0" t="n">
@@ -1534,10 +1545,10 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C61" s="0" t="n">
@@ -1545,10 +1556,10 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C62" s="0" t="n">
@@ -1556,10 +1567,10 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C63" s="0" t="n">
@@ -1567,10 +1578,10 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C64" s="0" t="n">
@@ -1578,10 +1589,10 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C65" s="0" t="n">
@@ -1589,10 +1600,10 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C66" s="0" t="n">
@@ -1600,10 +1611,10 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C67" s="0" t="n">
@@ -1612,15 +1623,15 @@
       <c r="D67" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C68" s="0" t="n">
@@ -1628,10 +1639,10 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C69" s="0" t="n">
@@ -1640,15 +1651,15 @@
       <c r="D69" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C70" s="0" t="n">
@@ -1657,7 +1668,7 @@
       <c r="D70" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="5" t="s">
         <v>160</v>
       </c>
     </row>

--- a/databases/Brands.xlsx
+++ b/databases/Brands.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">1 A Pharma</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ja</t>
   </si>
   <si>
@@ -52,454 +49,250 @@
     <t xml:space="preserve">Abtei</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.omega-pharma.de/media/img/marken/weblication/wThumbnails/abtei-caed3956274ed4egada1972ac1e809c3@2x.png </t>
   </si>
   <si>
     <t xml:space="preserve">ACC </t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://patricia-helber.de/images/Corny/acc-akut-logo.jpg </t>
   </si>
   <si>
     <t xml:space="preserve">Acis Arzneimittel</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALIUD Pharma </t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Allpharm</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ardeybronchol</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aristo</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aspecton</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Berlin-Chemie</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
     <t xml:space="preserve">betapharm</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bionorica SE</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/de/thumb/1/11/Bionorica_Logo_2011.svg/1200px-Bionorica_Logo_2011.svg.png </t>
   </si>
   <si>
     <t xml:space="preserve">Bisolvon</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bromuc</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
     <t xml:space="preserve">Broncho Sern</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bronchofit</t>
   </si>
   <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bronchoverde</t>
   </si>
   <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cefabronchin</t>
   </si>
   <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cevitect</t>
   </si>
   <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
     <t xml:space="preserve">DocMorris</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/0/01/DocMorris_logo.svg </t>
   </si>
   <si>
     <t xml:space="preserve">Doppelherz</t>
   </si>
   <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/de/thumb/d/db/Doppelherz_logo.svg/2000px-Doppelherz_logo.svg.png </t>
   </si>
   <si>
     <t xml:space="preserve">Dr Muches</t>
   </si>
   <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Erkältungs Entoxin</t>
   </si>
   <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eucabal </t>
   </si>
   <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fagusan</t>
   </si>
   <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fluimucil</t>
   </si>
   <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gelobronchial</t>
   </si>
   <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
     <t xml:space="preserve">H&amp;S</t>
   </si>
   <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hedelix</t>
   </si>
   <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
     <t xml:space="preserve">Herbion</t>
   </si>
   <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hermes Arzneimittel</t>
   </si>
   <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
     <t xml:space="preserve">Heumann</t>
   </si>
   <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hexal</t>
   </si>
   <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/de/thumb/f/ff/Hexal_Logo.svg/2000px-Hexal_Logo.svg.png </t>
   </si>
   <si>
     <t xml:space="preserve">Jutussin</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kattwiga</t>
   </si>
   <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
     <t xml:space="preserve">Klosterfrau</t>
   </si>
   <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.klosterfrau.at/fileadmin/Images/06_containersammlung/02_container/markenlogos/Logo_klosterfrau_AT.jpg </t>
   </si>
   <si>
     <t xml:space="preserve">Larylin</t>
   </si>
   <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymphdiaral</t>
   </si>
   <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
     <t xml:space="preserve">Makatussin</t>
   </si>
   <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marrubin</t>
   </si>
   <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
     <t xml:space="preserve">MEDA</t>
   </si>
   <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mucosolvan</t>
   </si>
   <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://produkt-kenner.de/wp-content/uploads/2018/05/mucosolvan-erfahrungen-mucosolvan-test-mucosolvan-hustensaft-erfahrungen-mucosolvan-hustensaft-test-wie-wirkt-mucosolvan-mucosolvan-kaufen-1-1024x302.png </t>
   </si>
   <si>
     <t xml:space="preserve">Omni-Biotic</t>
   </si>
   <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pari</t>
   </si>
   <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
     <t xml:space="preserve">Penta Arzneimittel</t>
   </si>
   <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pertussin</t>
   </si>
   <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://internet-apotheke-freiburg.de/pix/apx400/02588836.jpg </t>
   </si>
   <si>
     <t xml:space="preserve">Phytohustil</t>
   </si>
   <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
     <t xml:space="preserve">PIWU</t>
   </si>
   <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prospan</t>
   </si>
   <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.prospan.de/typo3conf/ext/engelhard_base/Resources/Public/images/logos/Logo_Prospan.png </t>
   </si>
   <si>
     <t xml:space="preserve">Pulmonaria</t>
   </si>
   <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ratiopharm</t>
   </si>
   <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/thumb/d/de/Ratiopharm.svg/2000px-Ratiopharm.svg.png </t>
   </si>
   <si>
     <t xml:space="preserve">RCCornet</t>
   </si>
   <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
     <t xml:space="preserve">RCTest</t>
   </si>
   <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salus</t>
   </si>
   <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://img.salus.de/maxw_250,q_85,f_inside,v_6e3b4fc2b3/fileadmin/user_upload/user_upload/salus/Marken/02_salus.png </t>
   </si>
   <si>
     <t xml:space="preserve">Scio</t>
   </si>
   <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sedotussin</t>
   </si>
   <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sidroga</t>
   </si>
   <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
     <t xml:space="preserve">Silomat</t>
   </si>
   <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.apodiscounter.de/images/apo_content/ms_boehringer_silomat_2.jpg </t>
   </si>
   <si>
     <t xml:space="preserve">Sinuc</t>
   </si>
   <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sinuforton</t>
   </si>
   <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tacholiquin </t>
   </si>
   <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tetesept</t>
   </si>
   <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tussafug</t>
   </si>
   <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tussiana</t>
   </si>
   <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tussovowen</t>
   </si>
   <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
     <t xml:space="preserve">Umckaloabo</t>
   </si>
   <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.umckaloabo.de/fileadmin/user_data/umkaloabo/Bilder/Slider/Umckaloabo_Tropfen_50ml_FS_Fl_vl.png </t>
   </si>
   <si>
     <t xml:space="preserve">WALA</t>
   </si>
   <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
     <t xml:space="preserve">Weleda </t>
   </si>
   <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/de/thumb/5/5c/Logo_Weleda.svg/2000px-Logo_Weleda.svg.png </t>
   </si>
   <si>
     <t xml:space="preserve">WICK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.designtagebuch.de/wp-content/uploads/mediathek//2008/10/wick-logo-1-700x509.jpg </t>
@@ -509,9 +302,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -573,57 +365,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF00FF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF00FF00"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -658,7 +405,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -671,24 +418,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -786,7 +521,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -814,884 +549,865 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
+      <c r="B3" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>37</v>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>14</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>39</v>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>41</v>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>43</v>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>17</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>45</v>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>18</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>47</v>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>19</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>49</v>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>20</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>6</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>21</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>6</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>22</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>57</v>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>23</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>59</v>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>24</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>61</v>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>25</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>63</v>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>26</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>65</v>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>27</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>67</v>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>28</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>69</v>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>29</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>73</v>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>31</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>75</v>
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>32</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>77</v>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>33</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>80</v>
+        <v>6</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>34</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>82</v>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>35</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>84</v>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>36</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>37</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>89</v>
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>38</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>91</v>
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>39</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>93</v>
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>40</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>95</v>
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>41</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>97</v>
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>42</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>43</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>102</v>
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>44</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>104</v>
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>45</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>106</v>
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>46</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>109</v>
+        <v>6</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>47</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>111</v>
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>48</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>113</v>
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>49</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>116</v>
+        <v>6</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>50</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>118</v>
+    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>51</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>121</v>
+        <v>6</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>52</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>123</v>
+    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>53</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>125</v>
+    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>54</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>128</v>
+        <v>6</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>55</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>130</v>
+    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>56</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>132</v>
+    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>57</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>134</v>
+    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>58</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>137</v>
+        <v>6</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>59</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>139</v>
+    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>60</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>141</v>
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>61</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>143</v>
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>62</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>145</v>
+    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>63</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>147</v>
+    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>64</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>149</v>
+    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>65</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>151</v>
+    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>66</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>154</v>
+        <v>6</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>67</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>156</v>
+    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>68</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>159</v>
+        <v>6</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>69</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>160</v>
+        <v>6</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.sandoz.de/sites/www.sandoz.de/files/resize/logo-1apharma-274x371-216x250.png "/>
-    <hyperlink ref="E3" r:id="rId2" display="https://www.omega-pharma.de/media/img/marken/weblication/wThumbnails/abtei-caed3956274ed4egada1972ac1e809c3@2x.png "/>
-    <hyperlink ref="E4" r:id="rId3" display="https://patricia-helber.de/images/Corny/acc-akut-logo.jpg "/>
-    <hyperlink ref="E13" r:id="rId4" display="https://upload.wikimedia.org/wikipedia/de/thumb/1/11/Bionorica_Logo_2011.svg/1200px-Bionorica_Logo_2011.svg.png "/>
-    <hyperlink ref="E21" r:id="rId5" display="https://upload.wikimedia.org/wikipedia/commons/0/01/DocMorris_logo.svg "/>
-    <hyperlink ref="E22" r:id="rId6" display="https://upload.wikimedia.org/wikipedia/de/thumb/d/db/Doppelherz_logo.svg/2000px-Doppelherz_logo.svg.png "/>
-    <hyperlink ref="E34" r:id="rId7" display="https://upload.wikimedia.org/wikipedia/de/thumb/f/ff/Hexal_Logo.svg/2000px-Hexal_Logo.svg.png "/>
-    <hyperlink ref="E37" r:id="rId8" display="https://www.klosterfrau.at/fileadmin/Images/06_containersammlung/02_container/markenlogos/Logo_klosterfrau_AT.jpg "/>
-    <hyperlink ref="E43" r:id="rId9" display="https://produkt-kenner.de/wp-content/uploads/2018/05/mucosolvan-erfahrungen-mucosolvan-test-mucosolvan-hustensaft-erfahrungen-mucosolvan-hustensaft-test-wie-wirkt-mucosolvan-mucosolvan-kaufen-1-1024x302.png "/>
-    <hyperlink ref="E47" r:id="rId10" display="https://internet-apotheke-freiburg.de/pix/apx400/02588836.jpg "/>
-    <hyperlink ref="E50" r:id="rId11" display="https://www.prospan.de/typo3conf/ext/engelhard_base/Resources/Public/images/logos/Logo_Prospan.png "/>
-    <hyperlink ref="E52" r:id="rId12" display="https://upload.wikimedia.org/wikipedia/commons/thumb/d/de/Ratiopharm.svg/2000px-Ratiopharm.svg.png "/>
-    <hyperlink ref="E55" r:id="rId13" display="https://img.salus.de/maxw_250,q_85,f_inside,v_6e3b4fc2b3/fileadmin/user_upload/user_upload/salus/Marken/02_salus.png "/>
-    <hyperlink ref="E59" r:id="rId14" display="https://www.apodiscounter.de/images/apo_content/ms_boehringer_silomat_2.jpg "/>
-    <hyperlink ref="E67" r:id="rId15" display="https://www.umckaloabo.de/fileadmin/user_data/umkaloabo/Bilder/Slider/Umckaloabo_Tropfen_50ml_FS_Fl_vl.png "/>
-    <hyperlink ref="E69" r:id="rId16" display="https://upload.wikimedia.org/wikipedia/de/thumb/5/5c/Logo_Weleda.svg/2000px-Logo_Weleda.svg.png "/>
-    <hyperlink ref="E70" r:id="rId17" display="https://www.designtagebuch.de/wp-content/uploads/mediathek//2008/10/wick-logo-1-700x509.jpg "/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1700,7 +1416,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>